--- a/long_first/synthetic_dataset_16.xlsx
+++ b/long_first/synthetic_dataset_16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -28,22 +28,22 @@
     <t>Value</t>
   </si>
   <si>
-    <t>yesterday</t>
-  </si>
-  <si>
     <t>not a date</t>
   </si>
   <si>
+    <t>Radio</t>
+  </si>
+  <si>
     <t>TV</t>
   </si>
   <si>
-    <t>Radio</t>
-  </si>
-  <si>
     <t>Spend</t>
   </si>
   <si>
     <t>GRPs</t>
+  </si>
+  <si>
+    <t>ten</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,91 +427,91 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>46002</v>
+        <v>46167</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>46002</v>
+        <v>46167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>46009</v>
+        <v>46153</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="2">
+        <v>46167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>46023</v>
-      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>46016</v>
+        <v>46153</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>46016</v>
+        <v>46153</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -520,133 +520,77 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>46016</v>
+        <v>46167</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>46002</v>
+        <v>46160</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>46023</v>
+        <v>46160</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>46009</v>
+        <v>46153</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12">
-        <v>198</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>46009</v>
+        <v>46160</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>46016</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>46002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>46009</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
